--- a/src/outputs/data_fao_cat.xlsx
+++ b/src/outputs/data_fao_cat.xlsx
@@ -394,7 +394,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>categoryY2013</t>
         </is>
       </c>
     </row>

--- a/src/outputs/data_fao_cat.xlsx
+++ b/src/outputs/data_fao_cat.xlsx
@@ -50566,11 +50566,11 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1731" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1732">
@@ -50595,11 +50595,11 @@
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1732" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1733">
@@ -50624,11 +50624,11 @@
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1733" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1734">
@@ -50653,11 +50653,11 @@
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1734" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1735">
@@ -50682,11 +50682,11 @@
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1735" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1736">
@@ -50711,11 +50711,11 @@
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1736" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1737">
@@ -50740,11 +50740,11 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1737" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1738">
@@ -50769,11 +50769,11 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1738" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1739">
@@ -50798,11 +50798,11 @@
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1739" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1740">
@@ -50827,11 +50827,11 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1740" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1741">
@@ -50856,11 +50856,11 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1741" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1742">
@@ -50885,11 +50885,11 @@
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1742" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1743">
@@ -50914,11 +50914,11 @@
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1743" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1744">
@@ -50943,11 +50943,11 @@
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1744" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1745">
@@ -50972,11 +50972,11 @@
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1745" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1746">
@@ -51001,11 +51001,11 @@
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1746" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1747">
@@ -51030,11 +51030,11 @@
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1747" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1748">
@@ -51059,11 +51059,11 @@
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1748" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1749">
@@ -51088,11 +51088,11 @@
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1749" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1750">
@@ -51117,7 +51117,7 @@
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1750" t="n">
@@ -51146,11 +51146,11 @@
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1751" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1752">
@@ -51175,11 +51175,11 @@
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1752" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1753">
@@ -51204,11 +51204,11 @@
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1753" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1754">
@@ -51233,11 +51233,11 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1754" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1755">
@@ -51262,11 +51262,11 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1755" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1756">
@@ -51291,11 +51291,11 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1756" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1757">
@@ -51320,11 +51320,11 @@
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1757" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1758">
@@ -51349,11 +51349,11 @@
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1758" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1759">
@@ -51378,11 +51378,11 @@
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1759" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1760">
@@ -51407,11 +51407,11 @@
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1760" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1761">
@@ -51436,11 +51436,11 @@
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1761" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1762">
@@ -51465,11 +51465,11 @@
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1762" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1763">
@@ -51494,11 +51494,11 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1763" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1764">
@@ -51523,11 +51523,11 @@
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1764" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1765">
@@ -51552,11 +51552,11 @@
       </c>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1765" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1766">
@@ -51581,11 +51581,11 @@
       </c>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1766" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1767">
@@ -51610,11 +51610,11 @@
       </c>
       <c r="F1767" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1767" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1768">
@@ -51639,11 +51639,11 @@
       </c>
       <c r="F1768" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1768" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1769">
@@ -51668,7 +51668,7 @@
       </c>
       <c r="F1769" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1769" t="n">
@@ -51697,11 +51697,11 @@
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1770" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1771">
@@ -51726,11 +51726,11 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1771" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1772">
@@ -51755,11 +51755,11 @@
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1772" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1773">
@@ -51784,11 +51784,11 @@
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1773" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1774">
@@ -51813,11 +51813,11 @@
       </c>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1774" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1775">
@@ -51842,11 +51842,11 @@
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1775" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1776">
@@ -51871,11 +51871,11 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1776" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1777">
@@ -51900,11 +51900,11 @@
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1777" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1778">
@@ -51929,11 +51929,11 @@
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1778" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1779">
@@ -51958,11 +51958,11 @@
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1779" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1780">
@@ -51987,11 +51987,11 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1780" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1781">
@@ -52016,11 +52016,11 @@
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1781" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1782">
@@ -52045,11 +52045,11 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1782" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1783">
@@ -52074,7 +52074,7 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1783" t="n">
@@ -52103,11 +52103,11 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1784" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1785">
@@ -52132,7 +52132,7 @@
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1785" t="n">
@@ -52161,11 +52161,11 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1786" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1787">
@@ -52190,11 +52190,11 @@
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1787" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1788">
@@ -52219,11 +52219,11 @@
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1788" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1789">
@@ -52248,11 +52248,11 @@
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1789" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1790">
@@ -52277,11 +52277,11 @@
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1790" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1791">
@@ -52306,11 +52306,11 @@
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1791" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1792">
@@ -52335,11 +52335,11 @@
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1792" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1793">
@@ -52364,11 +52364,11 @@
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1793" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1794">
@@ -52393,11 +52393,11 @@
       </c>
       <c r="F1794" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1794" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1795">
@@ -52422,11 +52422,11 @@
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1795" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1796">
@@ -52451,11 +52451,11 @@
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1796" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1797">
@@ -52480,11 +52480,11 @@
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1797" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1798">
@@ -52509,7 +52509,7 @@
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1798" t="n">
@@ -52538,11 +52538,11 @@
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1799" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1800">
@@ -52567,11 +52567,11 @@
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1800" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1801">
@@ -52596,11 +52596,11 @@
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1801" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1802">
@@ -52625,11 +52625,11 @@
       </c>
       <c r="F1802" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1802" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1803">
@@ -52654,11 +52654,11 @@
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1803" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1804">
@@ -52683,11 +52683,11 @@
       </c>
       <c r="F1804" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1804" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1805">
@@ -52712,11 +52712,11 @@
       </c>
       <c r="F1805" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1805" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1806">
@@ -52741,11 +52741,11 @@
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1806" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1807">
@@ -52770,11 +52770,11 @@
       </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1807" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1808">
@@ -52799,11 +52799,11 @@
       </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1808" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1809">
@@ -52828,11 +52828,11 @@
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1809" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1810">
@@ -52857,11 +52857,11 @@
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1810" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1811">
@@ -52886,11 +52886,11 @@
       </c>
       <c r="F1811" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1811" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1812">
@@ -52915,11 +52915,11 @@
       </c>
       <c r="F1812" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1812" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1813">
@@ -52944,11 +52944,11 @@
       </c>
       <c r="F1813" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1813" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1814">
@@ -52973,11 +52973,11 @@
       </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1814" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1815">
@@ -53002,11 +53002,11 @@
       </c>
       <c r="F1815" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1815" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1816">
@@ -53031,11 +53031,11 @@
       </c>
       <c r="F1816" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1816" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1817">
@@ -53060,11 +53060,11 @@
       </c>
       <c r="F1817" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1817" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1818">
@@ -53089,11 +53089,11 @@
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1818" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1819">
@@ -53118,11 +53118,11 @@
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1819" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1820">
@@ -53147,11 +53147,11 @@
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1820" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1821">
@@ -53176,11 +53176,11 @@
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1821" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1822">
@@ -53205,11 +53205,11 @@
       </c>
       <c r="F1822" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1822" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1823">
@@ -53234,11 +53234,11 @@
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1823" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1824">
@@ -53263,11 +53263,11 @@
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1824" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1825">
@@ -53292,11 +53292,11 @@
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1825" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1826">
@@ -53321,11 +53321,11 @@
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1826" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1827">
@@ -53350,11 +53350,11 @@
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1827" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1828">
@@ -53379,11 +53379,11 @@
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1828" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1829">
@@ -53408,11 +53408,11 @@
       </c>
       <c r="F1829" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1829" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1830">
@@ -53437,11 +53437,11 @@
       </c>
       <c r="F1830" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1830" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1831">
@@ -53466,11 +53466,11 @@
       </c>
       <c r="F1831" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1831" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1832">
@@ -53495,11 +53495,11 @@
       </c>
       <c r="F1832" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1832" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1833">
@@ -53524,11 +53524,11 @@
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1833" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1834">
@@ -53553,11 +53553,11 @@
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1834" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1835">
@@ -53582,11 +53582,11 @@
       </c>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1835" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1836">
@@ -53611,11 +53611,11 @@
       </c>
       <c r="F1836" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1836" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1837">
@@ -53640,11 +53640,11 @@
       </c>
       <c r="F1837" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1837" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1838">
@@ -53669,11 +53669,11 @@
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1838" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1839">
@@ -53698,11 +53698,11 @@
       </c>
       <c r="F1839" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1839" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1840">
@@ -53727,11 +53727,11 @@
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1840" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1841">
@@ -53756,11 +53756,11 @@
       </c>
       <c r="F1841" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1841" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1842">
@@ -53785,11 +53785,11 @@
       </c>
       <c r="F1842" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1842" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1843">
@@ -53814,11 +53814,11 @@
       </c>
       <c r="F1843" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1843" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1844">
@@ -53843,11 +53843,11 @@
       </c>
       <c r="F1844" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1844" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1845">
@@ -53872,11 +53872,11 @@
       </c>
       <c r="F1845" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1845" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1846">
@@ -53901,11 +53901,11 @@
       </c>
       <c r="F1846" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1846" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1847">
@@ -53930,11 +53930,11 @@
       </c>
       <c r="F1847" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1847" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1848">
@@ -53959,11 +53959,11 @@
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1848" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1849">
@@ -53988,11 +53988,11 @@
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1849" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1850">
@@ -54017,11 +54017,11 @@
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1850" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1851">
@@ -54046,11 +54046,11 @@
       </c>
       <c r="F1851" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1851" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1852">
@@ -54075,11 +54075,11 @@
       </c>
       <c r="F1852" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1852" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1853">
@@ -54104,11 +54104,11 @@
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1853" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1854">
@@ -54133,11 +54133,11 @@
       </c>
       <c r="F1854" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1854" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1855">
@@ -54162,11 +54162,11 @@
       </c>
       <c r="F1855" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1855" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1856">
@@ -54191,11 +54191,11 @@
       </c>
       <c r="F1856" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1856" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1857">
@@ -54220,11 +54220,11 @@
       </c>
       <c r="F1857" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1857" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1858">
@@ -54249,11 +54249,11 @@
       </c>
       <c r="F1858" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1858" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1859">
@@ -54278,11 +54278,11 @@
       </c>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1859" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1860">
@@ -54307,11 +54307,11 @@
       </c>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1860" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1861">
@@ -54336,11 +54336,11 @@
       </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1861" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1862">
@@ -54365,11 +54365,11 @@
       </c>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1862" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1863">
@@ -54394,11 +54394,11 @@
       </c>
       <c r="F1863" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1863" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1864">
@@ -54423,11 +54423,11 @@
       </c>
       <c r="F1864" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1864" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1865">
@@ -54452,11 +54452,11 @@
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1865" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1866">
@@ -54481,7 +54481,7 @@
       </c>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1866" t="n">
@@ -54510,11 +54510,11 @@
       </c>
       <c r="F1867" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1867" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1868">
@@ -54539,11 +54539,11 @@
       </c>
       <c r="F1868" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1868" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1869">
@@ -54568,11 +54568,11 @@
       </c>
       <c r="F1869" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1869" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1870">
@@ -54597,11 +54597,11 @@
       </c>
       <c r="F1870" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1870" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1871">
@@ -54626,11 +54626,11 @@
       </c>
       <c r="F1871" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1871" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1872">
@@ -54655,11 +54655,11 @@
       </c>
       <c r="F1872" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1872" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1873">
@@ -54684,11 +54684,11 @@
       </c>
       <c r="F1873" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1873" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1874">
@@ -54713,11 +54713,11 @@
       </c>
       <c r="F1874" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1874" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1875">
@@ -54742,11 +54742,11 @@
       </c>
       <c r="F1875" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1875" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1876">
@@ -54771,11 +54771,11 @@
       </c>
       <c r="F1876" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1876" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1877">
@@ -54800,11 +54800,11 @@
       </c>
       <c r="F1877" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1877" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1878">
@@ -54829,11 +54829,11 @@
       </c>
       <c r="F1878" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1878" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1879">
@@ -54858,11 +54858,11 @@
       </c>
       <c r="F1879" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1879" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1880">
@@ -54887,11 +54887,11 @@
       </c>
       <c r="F1880" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1880" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1881">
@@ -54916,11 +54916,11 @@
       </c>
       <c r="F1881" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1881" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1882">
@@ -54945,11 +54945,11 @@
       </c>
       <c r="F1882" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1882" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1883">
@@ -54974,11 +54974,11 @@
       </c>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1883" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1884">
@@ -55003,11 +55003,11 @@
       </c>
       <c r="F1884" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1884" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1885">
@@ -55032,11 +55032,11 @@
       </c>
       <c r="F1885" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1885" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1886">
@@ -55061,11 +55061,11 @@
       </c>
       <c r="F1886" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1886" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1887">
@@ -55090,11 +55090,11 @@
       </c>
       <c r="F1887" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1887" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1888">
@@ -55119,11 +55119,11 @@
       </c>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1888" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1889">
@@ -55148,11 +55148,11 @@
       </c>
       <c r="F1889" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1889" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1890">
@@ -55177,11 +55177,11 @@
       </c>
       <c r="F1890" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1890" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1891">
@@ -55206,11 +55206,11 @@
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1891" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1892">
@@ -55235,11 +55235,11 @@
       </c>
       <c r="F1892" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1892" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1893">
@@ -55264,11 +55264,11 @@
       </c>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1893" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1894">
@@ -55293,11 +55293,11 @@
       </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1894" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1895">
@@ -55322,11 +55322,11 @@
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1895" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1896">
@@ -55351,11 +55351,11 @@
       </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1896" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1897">
@@ -55380,11 +55380,11 @@
       </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1897" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1898">
@@ -55409,11 +55409,11 @@
       </c>
       <c r="F1898" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1898" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1899">
@@ -55438,7 +55438,7 @@
       </c>
       <c r="F1899" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1899" t="n">
@@ -55467,11 +55467,11 @@
       </c>
       <c r="F1900" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1900" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1901">
@@ -55496,11 +55496,11 @@
       </c>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1901" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1902">
@@ -55525,11 +55525,11 @@
       </c>
       <c r="F1902" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1902" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1903">
@@ -55554,11 +55554,11 @@
       </c>
       <c r="F1903" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1903" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1904">
@@ -55583,11 +55583,11 @@
       </c>
       <c r="F1904" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1904" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1905">
@@ -55612,11 +55612,11 @@
       </c>
       <c r="F1905" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1905" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1906">
@@ -55641,11 +55641,11 @@
       </c>
       <c r="F1906" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1906" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1907">
@@ -55670,11 +55670,11 @@
       </c>
       <c r="F1907" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1907" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1908">
@@ -55699,11 +55699,11 @@
       </c>
       <c r="F1908" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1908" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1909">
@@ -55728,11 +55728,11 @@
       </c>
       <c r="F1909" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1909" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1910">
@@ -55757,11 +55757,11 @@
       </c>
       <c r="F1910" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1910" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1911">
@@ -55786,11 +55786,11 @@
       </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1911" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1912">
@@ -55815,11 +55815,11 @@
       </c>
       <c r="F1912" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1912" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1913">
@@ -55844,11 +55844,11 @@
       </c>
       <c r="F1913" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1913" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1914">
@@ -55873,7 +55873,7 @@
       </c>
       <c r="F1914" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1914" t="n">
@@ -55902,11 +55902,11 @@
       </c>
       <c r="F1915" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1915" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1916">
@@ -55931,11 +55931,11 @@
       </c>
       <c r="F1916" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1916" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1917">
@@ -55960,11 +55960,11 @@
       </c>
       <c r="F1917" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1917" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1918">
@@ -55989,11 +55989,11 @@
       </c>
       <c r="F1918" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1918" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1919">
@@ -56018,11 +56018,11 @@
       </c>
       <c r="F1919" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1919" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1920">
@@ -56047,11 +56047,11 @@
       </c>
       <c r="F1920" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1920" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1921">
@@ -56076,11 +56076,11 @@
       </c>
       <c r="F1921" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1921" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1922">
@@ -56105,11 +56105,11 @@
       </c>
       <c r="F1922" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1922" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1923">
@@ -56134,11 +56134,11 @@
       </c>
       <c r="F1923" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1923" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1924">
@@ -56163,11 +56163,11 @@
       </c>
       <c r="F1924" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1924" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1925">
@@ -56192,11 +56192,11 @@
       </c>
       <c r="F1925" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1925" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1926">
@@ -56221,11 +56221,11 @@
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1926" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1927">
@@ -56250,11 +56250,11 @@
       </c>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1927" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1928">
@@ -56279,7 +56279,7 @@
       </c>
       <c r="F1928" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1928" t="n">
@@ -56308,11 +56308,11 @@
       </c>
       <c r="F1929" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1929" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1930">
@@ -56337,11 +56337,11 @@
       </c>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1930" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1931">
@@ -56366,11 +56366,11 @@
       </c>
       <c r="F1931" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1931" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1932">
@@ -56395,11 +56395,11 @@
       </c>
       <c r="F1932" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1932" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1933">
@@ -56424,11 +56424,11 @@
       </c>
       <c r="F1933" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1933" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1934">
@@ -56453,11 +56453,11 @@
       </c>
       <c r="F1934" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1934" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1935">
@@ -56482,11 +56482,11 @@
       </c>
       <c r="F1935" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1935" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1936">
@@ -56511,11 +56511,11 @@
       </c>
       <c r="F1936" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1936" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1937">
@@ -56540,11 +56540,11 @@
       </c>
       <c r="F1937" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1937" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1938">
@@ -56569,11 +56569,11 @@
       </c>
       <c r="F1938" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1938" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1939">
@@ -56598,11 +56598,11 @@
       </c>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1939" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1940">
@@ -56627,11 +56627,11 @@
       </c>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1940" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1941">
@@ -56656,11 +56656,11 @@
       </c>
       <c r="F1941" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1941" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1942">
@@ -56685,11 +56685,11 @@
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1942" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1943">
@@ -56714,11 +56714,11 @@
       </c>
       <c r="F1943" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1943" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1944">
@@ -56743,11 +56743,11 @@
       </c>
       <c r="F1944" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1944" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1945">
@@ -56772,7 +56772,7 @@
       </c>
       <c r="F1945" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1945" t="n">
@@ -56801,11 +56801,11 @@
       </c>
       <c r="F1946" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1946" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1947">
@@ -56830,11 +56830,11 @@
       </c>
       <c r="F1947" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G1947" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1948">
